--- a/1USEPA_PSDM/7PSDM_EditMathieu/Example_TCE.xlsx
+++ b/1USEPA_PSDM/7PSDM_EditMathieu/Example_TCE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathieu\PycharmProjects\Thesis-Activated-Carbon-Modelling\1USEPA_PSDM\6PSDM_EditMathieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathieu\PycharmProjects\Thesis-Activated-Carbon-Modelling\1USEPA_PSDM\7PSDM_EditMathieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38767B23-D91F-4762-9858-3FB405F8E450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6A8BA-99AD-4FE0-8065-A2A5ADADB2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,6 +1607,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -1647,21 +1656,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3E377063FFE5489A04E78E6AF321F7" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d56b0910c09b2f28088e837fc8a4b1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns4="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns5="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns6="ca243fbf-11ff-4731-ae3b-9fc118f3bbf4" xmlns:ns7="d75150bc-12f9-4c92-a7eb-e71bcd8ee9be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c38d2d5698dbedce593845e142ad0a0f" ns1:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2118,7 +2113,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D2AB43-1478-4761-B6C2-35F0AE76DC6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2139,23 +2147,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D265CA-67CD-4AD3-99A3-30810910E78A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2176,4 +2168,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>